--- a/format_encodings/documents/Real_ Decimal to Binary Conversion.xlsx
+++ b/format_encodings/documents/Real_ Decimal to Binary Conversion.xlsx
@@ -1024,10 +1024,11 @@
     <col customWidth="1" min="14" max="14" width="3.14"/>
     <col customWidth="1" min="15" max="15" width="10.29"/>
     <col customWidth="1" hidden="1" min="16" max="16" width="12.43"/>
-    <col customWidth="1" min="17" max="17" width="3.29"/>
+    <col customWidth="1" min="17" max="17" width="3.14"/>
     <col customWidth="1" min="18" max="18" width="15.14"/>
     <col customWidth="1" min="19" max="19" width="2.43"/>
     <col customWidth="1" min="20" max="20" width="4.43"/>
+    <col hidden="1" min="21" max="27" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1035,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
-        <v>45.234</v>
+        <v>12.34</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -1093,17 +1094,18 @@
       </c>
       <c r="G3" s="8">
         <f>X3</f>
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="4">
-        <v>234.0</v>
+        <f>AA3</f>
+        <v>34</v>
       </c>
       <c r="V3" s="8">
         <f>abs(C1)</f>
-        <v>45.234</v>
+        <v>12.34</v>
       </c>
       <c r="W3" s="8">
         <f>if(C1&gt;=0,0,1)</f>
@@ -1111,19 +1113,19 @@
       </c>
       <c r="X3" s="8">
         <f>abs(floor(V3,1))</f>
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="Y3" s="8">
         <f>abs(V3-X3)</f>
-        <v>0.234</v>
+        <v>0.34</v>
       </c>
       <c r="Z3" s="9">
         <f>10^(Len(Y3)-2)</f>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA3" s="8">
         <f>Y3*Z3</f>
-        <v>234</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -1136,14 +1138,14 @@
       </c>
       <c r="E4" s="10" t="str">
         <f>E43</f>
-        <v>101101</v>
+        <v>1100</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="11" t="str">
         <f>M42</f>
-        <v>00111011111001110110110010001011</v>
+        <v>0101011100001010001111010111</v>
       </c>
     </row>
     <row r="5">
@@ -1189,7 +1191,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <f>X3</f>
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -1203,14 +1205,14 @@
       </c>
       <c r="G7" s="17">
         <f>int(C7/E7)</f>
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="19">
         <f>MOD(C7,E7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" ref="M7:M38" si="1">if(P7&gt;=$Z$3,1,0)</f>
@@ -1221,18 +1223,18 @@
       </c>
       <c r="O7" s="20">
         <f t="shared" ref="O7:O38" si="2">if(P7&gt;=$Z$3,P7-$Z$3,P7)</f>
-        <v>468</v>
+        <v>68</v>
       </c>
       <c r="P7" s="5">
         <f>R7*$T$7</f>
-        <v>468</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>19</v>
       </c>
       <c r="R7" s="8">
         <f>L3</f>
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>21</v>
@@ -1245,7 +1247,7 @@
     <row r="8">
       <c r="G8" s="17">
         <f t="shared" ref="G8:G38" si="3">int(G7/$E$7)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>20</v>
@@ -1256,18 +1258,18 @@
       </c>
       <c r="M8" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="18" t="s">
         <v>20</v>
       </c>
       <c r="O8" s="20">
         <f t="shared" si="2"/>
-        <v>936</v>
+        <v>36</v>
       </c>
       <c r="P8" s="5">
         <f t="shared" ref="P8:P38" si="5">O7*$T$7</f>
-        <v>936</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -1277,7 +1279,7 @@
       </c>
       <c r="G9" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>20</v>
@@ -1288,18 +1290,18 @@
       </c>
       <c r="M9" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="18" t="s">
         <v>20</v>
       </c>
       <c r="O9" s="20">
         <f t="shared" si="2"/>
-        <v>872</v>
+        <v>72</v>
       </c>
       <c r="P9" s="5">
         <f t="shared" si="5"/>
-        <v>1872</v>
+        <v>72</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>23</v>
@@ -1312,7 +1314,7 @@
       </c>
       <c r="G10" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>20</v>
@@ -1330,11 +1332,11 @@
       </c>
       <c r="O10" s="20">
         <f t="shared" si="2"/>
-        <v>744</v>
+        <v>44</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" si="5"/>
-        <v>1744</v>
+        <v>144</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>25</v>
@@ -1344,7 +1346,7 @@
       <c r="E11" s="10"/>
       <c r="G11" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>20</v>
@@ -1355,18 +1357,18 @@
       </c>
       <c r="M11" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="18" t="s">
         <v>20</v>
       </c>
       <c r="O11" s="20">
         <f t="shared" si="2"/>
-        <v>488</v>
+        <v>88</v>
       </c>
       <c r="P11" s="5">
         <f t="shared" si="5"/>
-        <v>1488</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
@@ -1382,22 +1384,22 @@
       </c>
       <c r="I12" s="19">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="18" t="s">
         <v>20</v>
       </c>
       <c r="O12" s="20">
         <f t="shared" si="2"/>
-        <v>976</v>
+        <v>76</v>
       </c>
       <c r="P12" s="5">
         <f t="shared" si="5"/>
-        <v>976</v>
+        <v>176</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>27</v>
@@ -1424,11 +1426,11 @@
       </c>
       <c r="O13" s="20">
         <f t="shared" si="2"/>
-        <v>952</v>
+        <v>52</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="5"/>
-        <v>1952</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
@@ -1452,11 +1454,11 @@
       </c>
       <c r="O14" s="20">
         <f t="shared" si="2"/>
-        <v>904</v>
+        <v>4</v>
       </c>
       <c r="P14" s="5">
         <f t="shared" si="5"/>
-        <v>1904</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
@@ -1473,18 +1475,18 @@
       </c>
       <c r="M15" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="22" t="s">
         <v>20</v>
       </c>
       <c r="O15" s="24">
         <f t="shared" si="2"/>
-        <v>808</v>
+        <v>8</v>
       </c>
       <c r="P15" s="5">
         <f t="shared" si="5"/>
-        <v>1808</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1501,18 +1503,18 @@
       </c>
       <c r="M16" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="22" t="s">
         <v>20</v>
       </c>
       <c r="O16" s="24">
         <f t="shared" si="2"/>
-        <v>616</v>
+        <v>16</v>
       </c>
       <c r="P16" s="5">
         <f t="shared" si="5"/>
-        <v>1616</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1529,18 +1531,18 @@
       </c>
       <c r="M17" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="22" t="s">
         <v>20</v>
       </c>
       <c r="O17" s="24">
         <f t="shared" si="2"/>
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="P17" s="5">
         <f t="shared" si="5"/>
-        <v>1232</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -1564,11 +1566,11 @@
       </c>
       <c r="O18" s="24">
         <f t="shared" si="2"/>
-        <v>464</v>
+        <v>64</v>
       </c>
       <c r="P18" s="5">
         <f t="shared" si="5"/>
-        <v>464</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
@@ -1585,18 +1587,18 @@
       </c>
       <c r="M19" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="22" t="s">
         <v>20</v>
       </c>
       <c r="O19" s="24">
         <f t="shared" si="2"/>
-        <v>928</v>
+        <v>28</v>
       </c>
       <c r="P19" s="5">
         <f t="shared" si="5"/>
-        <v>928</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
@@ -1613,18 +1615,18 @@
       </c>
       <c r="M20" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="22" t="s">
         <v>20</v>
       </c>
       <c r="O20" s="24">
         <f t="shared" si="2"/>
-        <v>856</v>
+        <v>56</v>
       </c>
       <c r="P20" s="5">
         <f t="shared" si="5"/>
-        <v>1856</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
@@ -1648,11 +1650,11 @@
       </c>
       <c r="O21" s="24">
         <f t="shared" si="2"/>
-        <v>712</v>
+        <v>12</v>
       </c>
       <c r="P21" s="5">
         <f t="shared" si="5"/>
-        <v>1712</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -1669,18 +1671,18 @@
       </c>
       <c r="M22" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>20</v>
       </c>
       <c r="O22" s="24">
         <f t="shared" si="2"/>
-        <v>424</v>
+        <v>24</v>
       </c>
       <c r="P22" s="5">
         <f t="shared" si="5"/>
-        <v>1424</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -1704,11 +1706,11 @@
       </c>
       <c r="O23" s="28">
         <f t="shared" si="2"/>
-        <v>848</v>
+        <v>48</v>
       </c>
       <c r="P23" s="5">
         <f t="shared" si="5"/>
-        <v>848</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
@@ -1725,18 +1727,18 @@
       </c>
       <c r="M24" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="26" t="s">
         <v>20</v>
       </c>
       <c r="O24" s="28">
         <f t="shared" si="2"/>
-        <v>696</v>
+        <v>96</v>
       </c>
       <c r="P24" s="5">
         <f t="shared" si="5"/>
-        <v>1696</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -1760,11 +1762,11 @@
       </c>
       <c r="O25" s="28">
         <f t="shared" si="2"/>
-        <v>392</v>
+        <v>91.99999999</v>
       </c>
       <c r="P25" s="5">
         <f t="shared" si="5"/>
-        <v>1392</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
@@ -1781,18 +1783,18 @@
       </c>
       <c r="M26" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="26" t="s">
         <v>20</v>
       </c>
       <c r="O26" s="28">
         <f t="shared" si="2"/>
-        <v>784</v>
+        <v>83.99999999</v>
       </c>
       <c r="P26" s="5">
         <f t="shared" si="5"/>
-        <v>784</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27">
@@ -1816,11 +1818,11 @@
       </c>
       <c r="O27" s="28">
         <f t="shared" si="2"/>
-        <v>568</v>
+        <v>67.99999997</v>
       </c>
       <c r="P27" s="5">
         <f t="shared" si="5"/>
-        <v>1568</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28">
@@ -1844,11 +1846,11 @@
       </c>
       <c r="O28" s="28">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>35.99999994</v>
       </c>
       <c r="P28" s="5">
         <f t="shared" si="5"/>
-        <v>1136</v>
+        <v>135.9999999</v>
       </c>
     </row>
     <row r="29">
@@ -1872,11 +1874,11 @@
       </c>
       <c r="O29" s="28">
         <f t="shared" si="2"/>
-        <v>272</v>
+        <v>71.99999988</v>
       </c>
       <c r="P29" s="5">
         <f t="shared" si="5"/>
-        <v>272</v>
+        <v>71.99999988</v>
       </c>
     </row>
     <row r="30">
@@ -1893,18 +1895,18 @@
       </c>
       <c r="M30" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="26" t="s">
         <v>20</v>
       </c>
       <c r="O30" s="28">
         <f t="shared" si="2"/>
-        <v>544</v>
+        <v>43.99999976</v>
       </c>
       <c r="P30" s="5">
         <f t="shared" si="5"/>
-        <v>544</v>
+        <v>143.9999998</v>
       </c>
     </row>
     <row r="31">
@@ -1921,18 +1923,18 @@
       </c>
       <c r="M31" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="30" t="s">
         <v>20</v>
       </c>
       <c r="O31" s="32">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>87.99999952</v>
       </c>
       <c r="P31" s="5">
         <f t="shared" si="5"/>
-        <v>1088</v>
+        <v>87.99999952</v>
       </c>
     </row>
     <row r="32">
@@ -1949,18 +1951,18 @@
       </c>
       <c r="M32" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="30" t="s">
         <v>20</v>
       </c>
       <c r="O32" s="32">
         <f t="shared" si="2"/>
-        <v>176</v>
+        <v>75.99999905</v>
       </c>
       <c r="P32" s="5">
         <f t="shared" si="5"/>
-        <v>176</v>
+        <v>175.999999</v>
       </c>
     </row>
     <row r="33">
@@ -1977,18 +1979,18 @@
       </c>
       <c r="M33" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="30" t="s">
         <v>20</v>
       </c>
       <c r="O33" s="32">
         <f t="shared" si="2"/>
-        <v>352</v>
+        <v>51.99999809</v>
       </c>
       <c r="P33" s="5">
         <f t="shared" si="5"/>
-        <v>352</v>
+        <v>151.9999981</v>
       </c>
     </row>
     <row r="34">
@@ -2005,18 +2007,18 @@
       </c>
       <c r="M34" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="30" t="s">
         <v>20</v>
       </c>
       <c r="O34" s="32">
         <f t="shared" si="2"/>
-        <v>704</v>
+        <v>3.999996185</v>
       </c>
       <c r="P34" s="5">
         <f t="shared" si="5"/>
-        <v>704</v>
+        <v>103.9999962</v>
       </c>
     </row>
     <row r="35">
@@ -2033,18 +2035,18 @@
       </c>
       <c r="M35" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="30" t="s">
         <v>20</v>
       </c>
       <c r="O35" s="32">
         <f t="shared" si="2"/>
-        <v>408</v>
+        <v>7.999992371</v>
       </c>
       <c r="P35" s="5">
         <f t="shared" si="5"/>
-        <v>1408</v>
+        <v>7.999992371</v>
       </c>
     </row>
     <row r="36">
@@ -2068,11 +2070,11 @@
       </c>
       <c r="O36" s="32">
         <f t="shared" si="2"/>
-        <v>816</v>
+        <v>15.99998474</v>
       </c>
       <c r="P36" s="5">
         <f t="shared" si="5"/>
-        <v>816</v>
+        <v>15.99998474</v>
       </c>
     </row>
     <row r="37">
@@ -2089,18 +2091,18 @@
       </c>
       <c r="M37" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="30" t="s">
         <v>20</v>
       </c>
       <c r="O37" s="32">
         <f t="shared" si="2"/>
-        <v>632</v>
+        <v>31.99996948</v>
       </c>
       <c r="P37" s="5">
         <f t="shared" si="5"/>
-        <v>1632</v>
+        <v>31.99996948</v>
       </c>
     </row>
     <row r="38">
@@ -2117,18 +2119,18 @@
       </c>
       <c r="M38" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="30" t="s">
         <v>20</v>
       </c>
       <c r="O38" s="32">
         <f t="shared" si="2"/>
-        <v>264</v>
+        <v>63.99993896</v>
       </c>
       <c r="P38" s="5">
         <f t="shared" si="5"/>
-        <v>1264</v>
+        <v>63.99993896</v>
       </c>
     </row>
     <row r="39">
@@ -2142,11 +2144,11 @@
       </c>
       <c r="E40" s="10" t="str">
         <f>textjoin("", TRUE, $I$7:$I$38)</f>
-        <v>10110100000000000000000000000000</v>
+        <v>00110000000000000000000000000000</v>
       </c>
       <c r="M40" s="8" t="str">
         <f>textjoin("", TRUE, $M$7:$M$38)</f>
-        <v>00111011111001110110110010001011</v>
+        <v>01010111000010100011110101110000</v>
       </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -2160,7 +2162,7 @@
       </c>
       <c r="E41" s="33" t="str">
         <f t="array" ref="E41">IFERROR(PROPER(CONCATENATE(MID(E40,LEN(E40)-ROW(INDIRECT("1:"&amp;LEN(E40)))+1,1))),"")</f>
-        <v>00000000000000000000000000101101</v>
+        <v>00000000000000000000000000001100</v>
       </c>
       <c r="M41" s="34"/>
       <c r="O41" s="5"/>
@@ -2172,12 +2174,12 @@
         <v>30</v>
       </c>
       <c r="E42" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("regexreplace(E41,""^0*"", """")"),"101101")</f>
-        <v>101101</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("regexreplace(E41,""^0*"", """")"),"1100")</f>
+        <v>1100</v>
       </c>
       <c r="M42" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("regexreplace(M40,""0*$"", """")"),"00111011111001110110110010001011")</f>
-        <v>00111011111001110110110010001011</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("regexreplace(M40,""0*$"", """")"),"0101011100001010001111010111")</f>
+        <v>0101011100001010001111010111</v>
       </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -2191,7 +2193,7 @@
       </c>
       <c r="E43" s="10" t="str">
         <f>if(E42 = "", 0, E42)</f>
-        <v>101101</v>
+        <v>1100</v>
       </c>
       <c r="M43" s="34"/>
       <c r="O43" s="5"/>
@@ -7039,7 +7041,7 @@
       </c>
       <c r="B1" s="35">
         <f>'Abs(Real) to Binary'!C1</f>
-        <v>45.234</v>
+        <v>12.34</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>34</v>
@@ -7053,18 +7055,18 @@
       <c r="D2" s="3"/>
       <c r="J2" s="8">
         <f>if(M2&gt;0,K2-1,K5-K4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ref="K2:K6" si="1">len(M2)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="9" t="str">
         <f>G7</f>
-        <v>101101</v>
+        <v>1100</v>
       </c>
       <c r="Q2" s="9"/>
     </row>
@@ -7073,14 +7075,14 @@
       <c r="D3" s="3"/>
       <c r="K3" s="1">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="8" t="str">
         <f>H7</f>
-        <v>00111011111001110110110010001011</v>
+        <v>0101011100001010001111010111</v>
       </c>
       <c r="Q3" s="4"/>
     </row>
@@ -7089,14 +7091,14 @@
       <c r="D4" s="3"/>
       <c r="K4" s="1">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="M4" s="8" t="str">
         <f>concat(M2,M3)</f>
-        <v>10110100111011111001110110110010001011</v>
+        <v>11000101011100001010001111010111</v>
       </c>
       <c r="Q4" s="36"/>
     </row>
@@ -7116,14 +7118,14 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(regexextract(M4, ""1[01]*""), ""00000"")"),"10110100111011111001110110110010001011")</f>
-        <v>10110100111011111001110110110010001011</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(regexextract(M4, ""1[01]*""), ""00000"")"),"11000101011100001010001111010111")</f>
+        <v>11000101011100001010001111010111</v>
       </c>
       <c r="Q5" s="9"/>
     </row>
@@ -7133,7 +7135,7 @@
       </c>
       <c r="D6" s="37">
         <f>B1</f>
-        <v>45.234</v>
+        <v>12.34</v>
       </c>
       <c r="F6" s="1">
         <f>if(D6&gt;=0,0,1)</f>
@@ -7141,22 +7143,22 @@
       </c>
       <c r="G6" s="1">
         <f>'Abs(Real) to Binary'!G3</f>
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1">
         <f>'Abs(Real) to Binary'!L3</f>
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M6" s="9" t="str">
         <f>right(M5,len(M5)-1)</f>
-        <v>0110100111011111001110110110010001011</v>
+        <v>1000101011100001010001111010111</v>
       </c>
     </row>
     <row r="7">
@@ -7165,22 +7167,22 @@
       </c>
       <c r="D7" s="10" t="str">
         <f>concat(G7,concat(".",H7))</f>
-        <v>101101.00111011111001110110110010001011</v>
+        <v>1100.0101011100001010001111010111</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>'Abs(Real) to Binary'!E4</f>
-        <v>101101</v>
+        <v>1100</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>'Abs(Real) to Binary'!L4</f>
-        <v>00111011111001110110110010001011</v>
+        <v>0101011100001010001111010111</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M7" s="4" t="str">
         <f>concat(concat("1.",concat(M6, "0")),concat(" x 2^",J2))</f>
-        <v>1.01101001110111110011101101100100010110 x 2^5</v>
+        <v>1.10001010111000010100011110101110 x 2^3</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
@@ -7190,7 +7192,7 @@
       </c>
       <c r="D8" s="3" t="str">
         <f>M7</f>
-        <v>1.01101001110111110011101101100100010110 x 2^5</v>
+        <v>1.10001010111000010100011110101110 x 2^3</v>
       </c>
       <c r="Q8" s="4"/>
     </row>
@@ -7237,7 +7239,7 @@
       </c>
       <c r="C11" s="47">
         <f t="shared" ref="C11:C16" si="2">$J$2</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="48">
         <f t="shared" ref="D11:D16" si="3">2^($H11-1)-1</f>
@@ -7245,7 +7247,7 @@
       </c>
       <c r="E11" s="49">
         <f t="shared" ref="E11:E16" si="4">if(C11=0,0, C11+D11)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="50">
         <f t="shared" ref="F11:F16" si="5">power(2,H11)-1</f>
@@ -7272,7 +7274,7 @@
       </c>
       <c r="C12" s="53">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="45">
         <f t="shared" si="3"/>
@@ -7280,7 +7282,7 @@
       </c>
       <c r="E12" s="54">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" s="55">
         <f t="shared" si="5"/>
@@ -7307,7 +7309,7 @@
       </c>
       <c r="C13" s="53">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="45">
         <f t="shared" si="3"/>
@@ -7315,7 +7317,7 @@
       </c>
       <c r="E13" s="54">
         <f t="shared" si="4"/>
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F13" s="55">
         <f t="shared" si="5"/>
@@ -7342,7 +7344,7 @@
       </c>
       <c r="C14" s="53">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="45">
         <f t="shared" si="3"/>
@@ -7350,7 +7352,7 @@
       </c>
       <c r="E14" s="54">
         <f t="shared" si="4"/>
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F14" s="55">
         <f t="shared" si="5"/>
@@ -7377,7 +7379,7 @@
       </c>
       <c r="C15" s="53">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="45">
         <f t="shared" si="3"/>
@@ -7385,7 +7387,7 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" si="4"/>
-        <v>16388</v>
+        <v>16386</v>
       </c>
       <c r="F15" s="55">
         <f t="shared" si="5"/>
@@ -7412,7 +7414,7 @@
       </c>
       <c r="C16" s="58">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="59">
         <f t="shared" si="3"/>
@@ -7420,7 +7422,7 @@
       </c>
       <c r="E16" s="60">
         <f t="shared" si="4"/>
-        <v>262148</v>
+        <v>262146</v>
       </c>
       <c r="F16" s="61">
         <f t="shared" si="5"/>
@@ -7472,11 +7474,11 @@
       </c>
       <c r="D20" s="10" t="str">
         <f t="shared" ref="D20:D25" si="9">LEFT(dec2bin(E11), H11)</f>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E20" s="8" t="str">
         <f t="shared" ref="E20:E25" si="10">left(concat($M$6, K11), I11)</f>
-        <v>0110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -7490,11 +7492,11 @@
       </c>
       <c r="D21" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>10100</v>
+        <v>10010</v>
       </c>
       <c r="E21" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0110100111</v>
+        <v>1000101011</v>
       </c>
     </row>
     <row r="22">
@@ -7508,11 +7510,11 @@
       </c>
       <c r="D22" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>10000100</v>
+        <v>10000010</v>
       </c>
       <c r="E22" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>01101001110111110011101</v>
+        <v>10001010111000010100011</v>
       </c>
     </row>
     <row r="23">
@@ -7530,7 +7532,7 @@
       </c>
       <c r="E23" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0110100111011111001110110110010001011000000000000000</v>
+        <v>1000101011100001010001111010111000000000000000000000</v>
       </c>
     </row>
     <row r="24">
@@ -7548,7 +7550,7 @@
       </c>
       <c r="E24" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0110100111011111001110110110010001011000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+        <v>1000101011100001010001111010111000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="25">
@@ -7566,7 +7568,7 @@
       </c>
       <c r="E25" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>01101001110111110011101101100100010110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+        <v>10001010111000010100011110101110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="26">
@@ -7587,7 +7589,7 @@
       <c r="B28" s="9"/>
       <c r="C28" s="64" t="str">
         <f t="shared" ref="C28:C33" si="11">concat(C20,concat(D20,E20))</f>
-        <v>01000110</v>
+        <v>01101000</v>
       </c>
       <c r="D28" s="65"/>
       <c r="E28" s="65"/>
@@ -7600,7 +7602,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="66" t="str">
         <f t="shared" si="11"/>
-        <v>0101000110100111</v>
+        <v>0100101000101011</v>
       </c>
     </row>
     <row r="30">
@@ -7610,7 +7612,7 @@
       <c r="B30" s="9"/>
       <c r="C30" s="66" t="str">
         <f t="shared" si="11"/>
-        <v>01000010001101001110111110011101</v>
+        <v>01000001010001010111000010100011</v>
       </c>
     </row>
     <row r="31">
